--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1902453.241545344</v>
+        <v>-1872108.901747741</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11181721.00166459</v>
+        <v>11203166.46228487</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.21519318353427</v>
+        <v>43.74043132973866</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>34.8434301515893</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>36.47262141203612</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -719,13 +719,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>125.3514582487888</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.1979688133637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -908,7 +908,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>196.7903609457499</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,7 +1060,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>243.8398845373353</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>114.4396071673833</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>408.2308606767916</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,19 +1139,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>34.78316025420675</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1196,10 +1196,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>124.6962773732649</v>
       </c>
       <c r="C10" t="n">
-        <v>17.87387080944133</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800586</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772998</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932877</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313407</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.36554149008164</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.630079656152</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>22.28534392848081</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1576,7 +1576,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>48.25041423584378</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>94.50264048967837</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.436997393288</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2011,13 +2011,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2050,7 +2050,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,13 +2059,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>210.4567660686558</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>184.3505634925039</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>133.370999537607</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,7 +2293,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>27.07950026194645</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2336,7 +2336,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2524,7 +2524,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>67.84972440587271</v>
+        <v>279.8080589982816</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948864</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
         <v>217.8665548556918</v>
@@ -2615,7 +2615,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2855,7 +2855,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864833</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2956,7 +2956,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>6.133574646794328</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112179</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432362</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
         <v>154.6003840628599</v>
@@ -3433,13 +3433,13 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
         <v>71.53763939432403</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185816</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U37" t="n">
         <v>259.4129604006783</v>
@@ -3554,7 +3554,7 @@
         <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>201.6308445169449</v>
       </c>
       <c r="U38" t="n">
         <v>240.3943693174059</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,16 +3907,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934455</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -3983,13 +3983,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561369</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H44" t="n">
         <v>270.0031426724685</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925395</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174058</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267643</v>
       </c>
       <c r="W44" t="n">
         <v>384.5711897043296</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.537639394324</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934426</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4192,13 +4192,13 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W46" t="n">
         <v>253.070430030824</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811742</v>
       </c>
       <c r="Y46" t="n">
         <v>208.9097636402854</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>557.5168885550254</v>
+        <v>811.0946963358764</v>
       </c>
       <c r="C2" t="n">
-        <v>523.4148197788528</v>
+        <v>775.899312344372</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>775.899312344372</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1660.342398351088</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1660.342398351088</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1401.120095668105</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1038.503145601931</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W2" t="n">
-        <v>1037.688095053369</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="X2" t="n">
-        <v>1022.586035673083</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.2999119727368</v>
+        <v>855.2769502042993</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1320.166038596776</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>552.97043790589</v>
+        <v>555.001419529772</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4087263891149</v>
+        <v>555.001419529772</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>389.1234267312947</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>389.1234267312947</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>389.1234267312947</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4495,43 +4495,43 @@
         <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>761.43086230084</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>1131.794921203953</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="X4" t="n">
-        <v>886.4031665373657</v>
+        <v>746.820038248759</v>
       </c>
       <c r="Y4" t="n">
-        <v>744.789056624877</v>
+        <v>746.820038248759</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>975.5969265971999</v>
       </c>
       <c r="C5" t="n">
-        <v>523.4148197788528</v>
+        <v>941.4948578210273</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>909.6254770358759</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>879.8911362345751</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>452.0237066437829</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704677</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704677</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704677</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199646</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1112.375769149668</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1189.145706210983</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1189.145706210983</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1189.145706210983</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1189.145706210983</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640687</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599281</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536175</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2227.574662409214</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1968.352359726231</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1605.735409660057</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1200.879955071091</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1002.101812701646</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>997.8560930417036</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583395</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949818</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415351</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684888</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846504</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.3615274508343</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704677</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.62587526704677</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>50.62587526704677</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>546.6314916840764</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>546.6314916840764</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>546.6314916840764</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>546.6314916840764</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>546.6314916840764</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1173.12669811378</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.5873005588819</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381027</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>959.9260321296654</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>787.3643206128903</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>621.486327814413</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>621.486327814413</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>444.7792737761692</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>279.1879988019969</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923714</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704677</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.62587526704677</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>325.3843298381823</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>743.5942116061434</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1203.078078787056</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2065.006131170482</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.513025140824</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2509.87594205771</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2350.634573355707</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2104.755126934162</v>
       </c>
       <c r="U7" t="n">
-        <v>1024.341879988165</v>
+        <v>1826.322126187267</v>
       </c>
       <c r="V7" t="n">
-        <v>1024.341879988165</v>
+        <v>1539.366618057698</v>
       </c>
       <c r="W7" t="n">
-        <v>1024.341879988165</v>
+        <v>1267.340213643989</v>
       </c>
       <c r="X7" t="n">
-        <v>1024.341879988165</v>
+        <v>1267.340213643989</v>
       </c>
       <c r="Y7" t="n">
-        <v>1024.341879988165</v>
+        <v>1151.744650848653</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>991.4987273237359</v>
+        <v>462.4809763712854</v>
       </c>
       <c r="C8" t="n">
-        <v>957.3966585475632</v>
+        <v>428.3789075951127</v>
       </c>
       <c r="D8" t="n">
-        <v>925.5272777624118</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E8" t="n">
-        <v>496.9456034996801</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>69.07817390888789</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>1033.105672808467</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X8" t="n">
-        <v>1018.003613428182</v>
+        <v>1283.121504795664</v>
       </c>
       <c r="Y8" t="n">
-        <v>1013.75789376824</v>
+        <v>874.8353810953173</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>792.6165398572691</v>
+        <v>966.5813843420327</v>
       </c>
       <c r="C10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>813.4916901053949</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1233.160939331176</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1580.667833301518</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1292.062614956869</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1292.062614956869</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1020.036210543161</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>1020.036210543161</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>792.6165398572691</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2217.673774570412</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1779.531301753836</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1343.62151692828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>909.8467720865751</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>481.9793424957829</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>80.58151111904684</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>80.58151111904684</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.1647217461869</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>204.2037575853447</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1038.554049543523</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1038.554049543523</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.554049543523</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>2030.592481152585</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3010.772147722892</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3839.082022556288</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3839.082022556288</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309345</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3947.260792874919</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3727.193565747958</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3467.971263064976</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3467.971263064976</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3063.115808476009</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2643.97334505532</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2643.97334505532</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374797</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206752</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.6693020476289</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299744</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.1647217461869</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2283949066445</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>430.7867198728568</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K12" t="n">
-        <v>430.7867198728568</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L12" t="n">
-        <v>430.7867198728568</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M12" t="n">
-        <v>430.7867198728568</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N12" t="n">
-        <v>430.7867198728568</v>
+        <v>1660.646436797299</v>
       </c>
       <c r="O12" t="n">
-        <v>1422.82515148192</v>
+        <v>1660.646436797299</v>
       </c>
       <c r="P12" t="n">
-        <v>1422.82515148192</v>
+        <v>1660.646436797299</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1660.646436797299</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380221</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172428</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1070.562933132744</v>
+        <v>949.5782250957709</v>
       </c>
       <c r="C13" t="n">
-        <v>898.0012216159686</v>
+        <v>777.0165135789958</v>
       </c>
       <c r="D13" t="n">
-        <v>732.1232288174913</v>
+        <v>611.1385207805185</v>
       </c>
       <c r="E13" t="n">
-        <v>562.3652250682285</v>
+        <v>441.3805170312558</v>
       </c>
       <c r="F13" t="n">
-        <v>385.6581710299847</v>
+        <v>264.673462993012</v>
       </c>
       <c r="G13" t="n">
-        <v>220.0668960558124</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>80.1647217461869</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.1647217461869</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108767</v>
+        <v>188.8405254354734</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820123</v>
+        <v>463.598980006609</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354358</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S13" t="n">
-        <v>2626.668718196941</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="T13" t="n">
-        <v>2380.789271775396</v>
+        <v>2451.62318245741</v>
       </c>
       <c r="U13" t="n">
-        <v>2102.356271028501</v>
+        <v>2173.190181710515</v>
       </c>
       <c r="V13" t="n">
-        <v>1815.400762898931</v>
+        <v>1886.234673580946</v>
       </c>
       <c r="W13" t="n">
-        <v>1543.374358485223</v>
+        <v>1614.208269167237</v>
       </c>
       <c r="X13" t="n">
-        <v>1297.982603818635</v>
+        <v>1368.81651450065</v>
       </c>
       <c r="Y13" t="n">
-        <v>1070.562933132744</v>
+        <v>1141.396843814758</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
         <v>793.2056155771595</v>
@@ -5282,46 +5282,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,52 +5513,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3168.718933692368</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>4552.836435941488</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>864.7097725347917</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C19" t="n">
-        <v>692.1480610180166</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>526.2700682195393</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>356.5120644702766</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5698,25 +5698,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V19" t="n">
-        <v>1801.366221019967</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W19" t="n">
-        <v>1529.339816606258</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X19" t="n">
-        <v>1283.948061939671</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.528391253779</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5750,40 +5750,40 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>533.9380463464488</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1368.288338304627</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>2443.348304557486</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M20" t="n">
-        <v>2443.348304557486</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993933</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
@@ -5826,10 +5826,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K21" t="n">
         <v>1107.588885023173</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1041.416826573035</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C22" t="n">
         <v>868.8551150562604</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2265.02878318778</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1978.07327505821</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1706.046870644502</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.655115977914</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1233.235445292023</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,10 +6063,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1008.757289365886</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
         <v>1008.757289365886</v>
@@ -6136,7 +6136,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
         <v>190.9207894961043</v>
@@ -6172,25 +6172,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>1945.413737851061</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W25" t="n">
-        <v>1673.387333437352</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X25" t="n">
-        <v>1427.995578770765</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y25" t="n">
-        <v>1200.575908084873</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009659</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167954</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.168637987182</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6294,10 +6294,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
         <v>128.3245134312372</v>
@@ -6306,25 +6306,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6373,19 +6373,19 @@
         <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
         <v>881.8088617745661</v>
@@ -6449,55 +6449,55 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681876</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934735</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423629</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423629</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993935</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
@@ -6506,7 +6506,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6531,10 +6531,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
         <v>128.3245134312372</v>
@@ -6543,25 +6543,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009659</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167954</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771616</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004254</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.168637987182</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.168637987182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6768,10 +6768,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
         <v>128.3245134312372</v>
@@ -6780,25 +6780,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6835,34 +6835,34 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886296</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030287</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E34" t="n">
-        <v>607.522463166642</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>174.5210820832277</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708295</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K34" t="n">
-        <v>495.745686477325</v>
+        <v>495.7456864773249</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806459</v>
+        <v>930.0289214806457</v>
       </c>
       <c r="M34" t="n">
         <v>1405.586141896919</v>
@@ -6871,13 +6871,13 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
         <v>2842.489162174706</v>
@@ -6886,22 +6886,22 @@
         <v>2699.647500885579</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.167761876911</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825367</v>
+        <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.93996029864</v>
+        <v>1241.939960298639</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6911,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I35" t="n">
         <v>97.56670367581785</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>540.3167323207291</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L35" t="n">
-        <v>1615.376698573589</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M35" t="n">
-        <v>2772.424533784139</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N35" t="n">
-        <v>3898.155517220586</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O35" t="n">
-        <v>4878.335183790892</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="P35" t="n">
-        <v>4878.335183790892</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="Q35" t="n">
-        <v>4878.335183790892</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="R35" t="n">
         <v>4878.335183790892</v>
@@ -6977,7 +6977,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
         <v>2835.290740278742</v>
@@ -7011,28 +7011,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I36" t="n">
-        <v>111.687404105829</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>436.2457290720413</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="K36" t="n">
-        <v>436.2457290720413</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="L36" t="n">
-        <v>436.2457290720413</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="M36" t="n">
-        <v>436.2457290720413</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="N36" t="n">
-        <v>1643.633687060287</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="O36" t="n">
-        <v>1643.633687060287</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P36" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
         <v>1643.633687060287</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E37" t="n">
         <v>602.8283265716796</v>
@@ -7084,10 +7084,10 @@
         <v>442.5209799463119</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850156</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I37" t="n">
         <v>97.56670367581785</v>
@@ -7111,10 +7111,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
         <v>2837.795025579744</v>
@@ -7129,10 +7129,10 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X37" t="n">
         <v>1448.265786976693</v>
@@ -7157,7 +7157,7 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
         <v>755.2952747835855</v>
@@ -7190,10 +7190,10 @@
         <v>4870.8398425989</v>
       </c>
       <c r="P38" t="n">
-        <v>4878.335183790892</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790892</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790892</v>
@@ -7211,13 +7211,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>111.687404105829</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>436.2457290720413</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>436.2457290720413</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>436.2457290720413</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>436.2457290720413</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
-        <v>1643.633687060287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q39" t="n">
         <v>1643.633687060287</v>
@@ -7330,13 +7330,13 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758679</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823634</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
@@ -7391,13 +7391,13 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
@@ -7415,22 +7415,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2177.324623035295</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="N41" t="n">
-        <v>2523.346856428595</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="O41" t="n">
-        <v>3503.526522998902</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4331.836397832298</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790892</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
@@ -7439,22 +7439,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581785</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581785</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581785</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="N42" t="n">
-        <v>1220.067526522551</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.067526522551</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="P42" t="n">
-        <v>1220.067526522551</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="Q42" t="n">
-        <v>1760.806465154627</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R42" t="n">
         <v>1760.806465154627</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463121</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.329412385016</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
@@ -7570,16 +7570,16 @@
         <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823633</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856844</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O43" t="n">
         <v>2294.966764156103</v>
@@ -7591,28 +7591,28 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
         <v>1166.762996961501</v>
@@ -7637,7 +7637,7 @@
         <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197254</v>
       </c>
       <c r="H44" t="n">
         <v>97.56670367581785</v>
@@ -7649,49 +7649,49 @@
         <v>97.56670367581785</v>
       </c>
       <c r="K44" t="n">
-        <v>540.3167323207291</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L44" t="n">
-        <v>1615.376698573589</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M44" t="n">
-        <v>2772.424533784139</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="N44" t="n">
-        <v>3898.155517220586</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O44" t="n">
-        <v>4878.335183790892</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P44" t="n">
-        <v>4878.335183790892</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790892</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7783,61 +7783,61 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463118</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850156</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
         <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758677</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823632</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856841</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361803</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461495</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579743</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290616</v>
       </c>
       <c r="T46" t="n">
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7846,7 +7846,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
         <v>1237.245823703677</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8055,16 +8055,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>262.4693064538403</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,19 +8143,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>34.867532687005</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380847</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>77.54539097102497</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,16 +8289,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>501.0157741586158</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380846</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>119.9805436479942</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8617,10 +8617,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>117.6925219988882</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>125.2919553930887</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8696,10 +8696,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827336</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,7 +8708,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O12" t="n">
-        <v>1002.059021827336</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>205.4611653017541</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>105.9132979316059</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,19 +9170,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>404.4043982844096</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>395.0015281256938</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>436.0375818946154</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>507.105909296743</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>750.2469944428849</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>92.22506899525865</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9954,10 +9954,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,22 +10112,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.407914635246</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10191,10 +10191,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,13 +10352,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>92.22506899525865</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,16 +10428,16 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>447.2222511564761</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>7.571051709083804</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.26333376768802</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1219.583795947723</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10838,13 +10838,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>7.571051709083804</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.26333376768802</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1219.583795947723</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11063,16 +11063,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>818.3363029781626</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11297,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>447.2222511564761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>350.72306039261</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11376,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>365.8213815965244</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>398.9176179368216</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.44981358791966</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.203262463343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>141.6500182959498</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>109.3985407791395</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>69.71657238081416</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>73.629186979618</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>58.58727362741777</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>37.46509486400026</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>248.5691704774792</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>216.2362286424011</v>
+        <v>4.277894049992256</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>881500.8158288078</v>
+        <v>734320.6009697882</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>961647.0063830618</v>
+        <v>974478.1509158544</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>961647.0063830618</v>
+        <v>976612.8088522626</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>829224.2203874884</v>
+        <v>989462.5717151932</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>989462.5717151932</v>
+        <v>989462.571715193</v>
       </c>
     </row>
     <row r="10">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12242.1440037203</v>
+        <v>10109.09741156059</v>
       </c>
       <c r="C2" t="n">
-        <v>13403.68299726021</v>
+        <v>13403.68299726022</v>
       </c>
       <c r="D2" t="n">
-        <v>13403.68299726021</v>
+        <v>13403.68299726022</v>
       </c>
       <c r="E2" t="n">
-        <v>11038.39301127411</v>
+        <v>13171.43960343381</v>
       </c>
       <c r="F2" t="n">
         <v>13171.43960343381</v>
@@ -26344,13 +26344,13 @@
         <v>13403.68299726022</v>
       </c>
       <c r="M2" t="n">
+        <v>13403.6829972602</v>
+      </c>
+      <c r="N2" t="n">
         <v>13403.68299726022</v>
       </c>
-      <c r="N2" t="n">
-        <v>13403.68299726021</v>
-      </c>
       <c r="O2" t="n">
-        <v>13403.68299726021</v>
+        <v>13403.68299726022</v>
       </c>
       <c r="P2" t="n">
         <v>13403.68299726022</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246206</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106438</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725247</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.9057047181</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338193</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099793</v>
+        <v>21768.74196143537</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.4213978836</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341149</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179442.2442618194</v>
+        <v>130743.3336435126</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171068.0601277516</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>68250.85363567101</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
         <v>81439.57146904283</v>
@@ -26439,25 +26439,25 @@
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904277</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>86781.92928567604</v>
+        <v>86781.9292856761</v>
       </c>
       <c r="M4" t="n">
-        <v>94325.77438500368</v>
+        <v>94325.77438500365</v>
       </c>
       <c r="N4" t="n">
-        <v>94325.77438500368</v>
+        <v>94325.77438500365</v>
       </c>
       <c r="O4" t="n">
         <v>94325.77438500366</v>
       </c>
       <c r="P4" t="n">
-        <v>94325.77438500368</v>
+        <v>94325.77438500369</v>
       </c>
     </row>
     <row r="5">
@@ -26470,34 +26470,34 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295555</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710204</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826069</v>
+        <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
         <v>75515.61472608971</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-368816.1890550314</v>
+        <v>-322579.7835874542</v>
       </c>
       <c r="C6" t="n">
-        <v>-251982.0779818289</v>
+        <v>-297136.791725909</v>
       </c>
       <c r="D6" t="n">
-        <v>-251982.0779818289</v>
+        <v>-236848.2330251203</v>
       </c>
       <c r="E6" t="n">
-        <v>-290645.0192240237</v>
+        <v>-328364.704031834</v>
       </c>
       <c r="F6" t="n">
-        <v>-225125.2761761196</v>
+        <v>-146009.5948107842</v>
       </c>
       <c r="G6" t="n">
-        <v>-145986.3704714015</v>
+        <v>-146009.5948107842</v>
       </c>
       <c r="H6" t="n">
-        <v>-145986.3704714015</v>
+        <v>-146009.5948107842</v>
       </c>
       <c r="I6" t="n">
-        <v>-145986.3704714015</v>
+        <v>-146009.5948107842</v>
       </c>
       <c r="J6" t="n">
-        <v>-257000.8358163918</v>
+        <v>-257024.0601557744</v>
       </c>
       <c r="K6" t="n">
-        <v>-145986.3704714015</v>
+        <v>-199677.9218741661</v>
       </c>
       <c r="L6" t="n">
-        <v>-165449.9730976744</v>
+        <v>-174230.1467881119</v>
       </c>
       <c r="M6" t="n">
-        <v>-285796.1275117168</v>
+        <v>-294015.4068516851</v>
       </c>
       <c r="N6" t="n">
-        <v>-224086.9063872446</v>
+        <v>-156437.7061138331</v>
       </c>
       <c r="O6" t="n">
-        <v>-156437.7061138331</v>
+        <v>-156437.7061138332</v>
       </c>
       <c r="P6" t="n">
         <v>-156437.7061138332</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
         <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380846</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827336</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26811,13 +26811,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="K4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874742</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179803</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977233</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072318</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574089</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201048</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179803</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977233</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702093</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574089</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179803</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977233</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072318</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574089</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>378.29614345032</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>46.34273366596524</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>38.58390397564182</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.94750516566907</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>218.1606778407325</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>31.8087862020904</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>110.7058668116495</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>13.80571410326706</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,19 +27859,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>362.600692808762</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>65.20415515853236</v>
       </c>
       <c r="C10" t="n">
-        <v>152.962223592166</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-5.053384223590637e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874688</v>
       </c>
       <c r="U38" t="n">
         <v>16.23571033874738</v>
@@ -30402,7 +30402,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874771</v>
       </c>
       <c r="K40" t="n">
         <v>16.23571033874738</v>
@@ -30414,7 +30414,7 @@
         <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
         <v>16.23571033874738</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874578</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,16 +34775,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>262.4693064538403</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34863,19 +34863,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>34.867532687005</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380847</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>77.54539097102497</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>501.0157741586158</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,13 +35030,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380846</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>119.9805436479942</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35337,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>117.6925219988882</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>125.2919553930887</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827336</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35428,10 +35428,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35498,19 +35498,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O12" t="n">
-        <v>1002.059021827336</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>205.4611653017541</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>105.9132979316059</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908462</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,13 +35650,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>404.4043982844096</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>395.0015281256938</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>436.0375818946154</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36136,7 +36136,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>507.105909296743</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>750.2469944428849</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>92.22506899525865</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36671,13 +36671,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.407914635246</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36908,13 +36908,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>92.22506899525865</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37145,19 +37145,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N34" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>447.2222511564761</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37318,7 +37318,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>7.571051709083804</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.26333376768802</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1219.583795947723</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371089</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>7.571051709083804</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>14.26333376768802</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1219.583795947723</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778284</v>
       </c>
       <c r="K40" t="n">
         <v>293.7695028348439</v>
@@ -37707,10 +37707,10 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
         <v>440.1440428900419</v>
@@ -37783,16 +37783,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>818.3363029781626</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37877,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>293.7695028348442</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>447.2222511564761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>350.72306039261</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L46" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552528</v>
       </c>
       <c r="Q46" t="n">
         <v>186.127402120901</v>
